--- a/Table02_NationalHealthExpendituresByType_BillionDollars.xlsx
+++ b/Table02_NationalHealthExpendituresByType_BillionDollars.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4B4D855-0A5B-4151-9026-4066E2806CD4}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91938459-CE4D-431B-B850-876154CFECC4}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -58,6 +58,27 @@
     <t xml:space="preserve">                    Dental Services</t>
   </si>
   <si>
+    <t xml:space="preserve">               Retail Outlet Sales of Medical Products</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    Prescription Drugs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    Durable Medical Equipment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    Other Non-Durable Medical Products</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          Government Public Health Activities</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Investment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          Structures and Equipment</t>
+  </si>
+  <si>
     <r>
       <t xml:space="preserve">          </t>
     </r>
@@ -78,105 +99,15 @@
       </rPr>
       <t>Other Health, Residential, and Personal Care</t>
     </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="7"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>1</t>
-    </r>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">               Home Health Care</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="7"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>2</t>
-    </r>
+    <t xml:space="preserve">               Nursing Care Facilities and Continuing Care Retirement Communities</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">               </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Nursing Care Facilities and Continuing Care Retirement Communities</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="7"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>2, 3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
+    <t xml:space="preserve">          Government Administration</t>
   </si>
   <si>
-    <t xml:space="preserve">               Retail Outlet Sales of Medical Products</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                    Prescription Drugs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                    Durable Medical Equipment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                    Other Non-Durable Medical Products</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">          Government Administration</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="7"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>4</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">          Net Cost of Health Insurance</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="7"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>5</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">          Government Public Health Activities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">     Investment</t>
+    <t xml:space="preserve">          Net Cost of Health Insurance</t>
   </si>
   <si>
     <r>
@@ -190,18 +121,9 @@
       </rPr>
       <t>Research</t>
     </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="7"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>6</t>
-    </r>
   </si>
   <si>
-    <t xml:space="preserve">          Structures and Equipment</t>
+    <t xml:space="preserve">               Home Health Care</t>
   </si>
 </sst>
 </file>
@@ -623,7 +545,7 @@
   <dimension ref="A1:W195"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.3984375" defaultRowHeight="12.3" x14ac:dyDescent="0.4"/>
@@ -1278,7 +1200,7 @@
     </row>
     <row r="10" spans="1:23" ht="12.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="8" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="B10" s="7">
         <v>0.4</v>
@@ -1349,7 +1271,7 @@
     </row>
     <row r="11" spans="1:23" ht="11.4" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="9" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="B11" s="7">
         <v>0.1</v>
@@ -1420,7 +1342,7 @@
     </row>
     <row r="12" spans="1:23" ht="12.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="9" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="B12" s="7">
         <v>0.8</v>
@@ -1491,7 +1413,7 @@
     </row>
     <row r="13" spans="1:23" ht="11.4" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="9" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B13" s="7">
         <v>5</v>
@@ -1562,7 +1484,7 @@
     </row>
     <row r="14" spans="1:23" ht="11.4" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="9" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B14" s="7">
         <v>2.7</v>
@@ -1633,7 +1555,7 @@
     </row>
     <row r="15" spans="1:23" ht="11.4" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="8" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B15" s="7">
         <v>0.7</v>
@@ -1704,7 +1626,7 @@
     </row>
     <row r="16" spans="1:23" ht="11.4" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="8" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B16" s="7">
         <v>1.6</v>
@@ -1775,7 +1697,7 @@
     </row>
     <row r="17" spans="1:23" ht="12.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="10" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B17" s="7">
         <v>0.1</v>
@@ -1846,7 +1768,7 @@
     </row>
     <row r="18" spans="1:23" ht="12.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="10" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B18" s="7">
         <v>1</v>
@@ -1917,7 +1839,7 @@
     </row>
     <row r="19" spans="1:23" ht="11.4" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="9" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B19" s="7">
         <v>0.4</v>
@@ -1988,7 +1910,7 @@
     </row>
     <row r="20" spans="1:23" ht="11.4" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="11" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B20" s="7">
         <v>2.5</v>
@@ -2130,7 +2052,7 @@
     </row>
     <row r="22" spans="1:23" ht="11.4" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="8" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B22" s="7">
         <v>1.8</v>
